--- a/InputFiles/CCDI/TC01_CCDI_phs002599.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs002599.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\sowjanya0307\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D779D41-8FA7-4692-957E-6E7FDF632235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9032A1-4C91-494C-B414-B7B7EF87CDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -65,183 +65,198 @@
     <t>StudiesTab</t>
   </si>
   <si>
-    <t>with file_data as (
-select file_name, data_category,file_type, file_size,file_access,  file_description,"sample.id" from df_sequencing_file
-union
-select file_name, data_category,file_type, file_size,file_access,  file_description,"sample.id" from df_methylation_array_file)
-SELECT DISTINCT
-    fd.file_name AS "File Name",
-    fd.data_category AS "Data Category",
-    COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type",
-    CASE     
-        WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
-            ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
-        WHEN fd.file_size &gt;= 1024 * 1024 THEN 
-            ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB' 
-        WHEN fd.file_size &gt;= 1024 THEN 
-            ROUND(fd.file_size / 1024.0, 2) || ' KB' 
-        ELSE 
-            ROUND(fd.file_size, 2) || ' Bytes' 
-    END AS "File Size",
-    fd.file_access AS "File Access",
-    std.dbgap_accession AS "Study ID",
-    prt.participant_id AS "Participant ID",
-    smp.sample_id AS "Sample ID"    
+    <t>SELECT
+    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
+    COUNT(DISTINCT prt.participant_id) AS "Participants",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT seq.id) AS "Files"
 FROM 
     df_study std
 LEFT JOIN 
     df_participant prt ON std.id = prt."study.id"
 LEFT JOIN 
     df_sample smp ON prt.id = smp."participant.id"
-JOIN 
-    file_data fd ON smp.id = fd."sample.id"
+LEFT JOIN 
+    df_sequencing_file seq ON smp.id = seq."sample.id"
 WHERE 
-    std.dbgap_accession = 'phs002599' ---AND prt.sex_at_birth = 'Male'
-Limit 100</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-   smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID", std.dbgap_accession AS "Study ID" , std.id, smp.anatomic_site AS "Sample Anatomic Site", dgn. "participant.id",
-    COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE smp.participant_age_at_collection END, 0) AS "Age at Sample Collection (days)",
-    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
-    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
---COALESCE(CASE WHEN dgn."participant.id" is null THEN dgn.diagnosis ELSE dgn.diagnosis_comment END,dgn.diagnosis_comment) AS "Sample Diagnosis1",
- dgn.diagnosis as "Sample Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON smp."id" = dgn."sample.id"
-WHERE 
-   std.dbgap_accession = 'phs002599' ---AND prt.sex_at_birth = 'Male' 
-AND smp.sample_id IS NOT NULL
-ORDER BY 
-   smp.sample_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>with diagnosis1 as (
-select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
-diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
-diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ),
-treatment1 as (select trt."participant.id",trt.treatment_type from  df_treatment trt  where trt.treatment_type is not null)
-SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-	dgn2.diag AS "Diagnosis",
-	dgn3.ant_site AS "Diagnosis Anatomic Site",
-	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
-	trt1.treatment_type AS "Treatment Type",
-	srv.last_known_survival_status AS "Last Known Survival Status"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
-LEFT JOIN 
-    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
-LEFT JOIN 
-    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    treatment1 trt1 ON prt.id = trt1."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs002599' AND prt.sex_at_birth = 'Male' 
-ORDER BY 
-    prt.participant_id ASC 
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>WITH Study AS (SELECT
+    std.dbgap_accession = 'phs002599';</t>
+  </si>
+  <si>
+    <t>TC01_CCDI_phs002599_TSVData.xlsx</t>
+  </si>
+  <si>
+    <t>TC01_CCDI_phs002599_WebData.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WITH Study AS (SELECT
     distinct std.study_name AS "Study_Name",
     std.dbgap_accession AS "Study_ID",
 	std.study_status AS "Study_Status"
 FROM df_study std where std.dbgap_accession is not null),
-diagnosis as (select study_id, group_concat(diagcounts,' ') diagcount from (select 'phs002599' as study_id,  diagnosis||'('||d_count||')' as diagcounts from (select row_number() over() as row_num, dgn.diagnosis diagnosis, count(*) d_count from df_diagnosis dgn group by dgn.diagnosis order by d_count desc) where row_num &lt;=5)),
-diagnosisas as (select study_id, group_concat(anatcounts,' ') anatcount from (select 'phs002599' as study_id,  anat||'('||as_count||')' as anatcounts from (select row_number() over() as row_num, dgn1.anatomic_site anat, count(*) as_count from df_diagnosis dgn1 group by dgn1.anatomic_site order by as_count desc) where row_num &lt;=5)),
-participants as (select 'phs002599' as study_id, count(*) as p_count from
-	    df_participant prt),	
-sample as (select 'phs002599' as study_id, count(*) as s_count from
-	    df_sample),
-sequencing as (select 'phs002599' as study_id, count(*) as sq_count from
-	    df_sequencing_file),
-sequencing1 as (select 'phs002599' as study_id, file_type, count(*) as sq1_count from
-	    df_sequencing_file group by file_type order by sq1_count),
-methylation as (select 'phs002599' as study_id, count(*) as mf_count from
-	    df_methylation_array_file),
-methylation1 as (select 'phs002599' as study_id, file_type, count(*) as mf1_count from
-	    df_methylation_array_file),
-files as (select study_id, group_concat(filecounts,' ') file from (select 'phs002599' as study_id,  file_type||'('||filecount||')' as filecounts from (select row_number() over() as row_num, file_type, count(*) as filecount from     (select  file_type, file_name from df_sequencing_file 
-		  union all
-		  select  file_type, file_name from df_methylation_array_file) 
-		  group by file_type order by filecount desc) where row_num &lt;=5)),
-publications as (select 'phs002599' as study_id, group_concat(pubmed_id,';') pubmeds from
-	    df_publication),
-personnel as (select 'phs002599' as study_id, group_concat(personnel_name,';') name from
-	    df_study_personnel),
-funding as (select 'phs002599' as study, group_concat(grant_id,';') grant from (select distinct grant_id from 
-	    df_study_funding))		
+diagnosis as (select study_id, group_concat(diagcounts,' ') diagcount from (select 'phs002599' as study_id,  diagnosis||'('||d_count||')' as diagcounts from (select row_number() over() as row_num, dgn.diagnosis diagnosis,
+             count(*) d_count from df_diagnosis dgn group by dgn.diagnosis order by d_count desc) where row_num &lt;=5)),
+diagnosisas as (select study_id, group_concat(anatcounts,' ') anatcount from (select 'phs002599' as study_id,  anat||'('||as_count||')' as anatcounts from (select row_number() over() as row_num, dgn1.anatomic_site anat, count(*)
+               as_count from df_diagnosis dgn1 group by dgn1.anatomic_site order by as_count desc) where row_num &lt;=5)),
+participants as (select 'phs002599' as study_id, count(*) as p_count from df_participant prt),	
+sample as (select 'phs002599' as study_id, count(*) as s_count from df_sample),
+total_files as (select 'phs002599' as study_id, count(*) as file_count from 
+				(select type, file_name from df_sequencing_file),
+files as (select study_id, group_concat(filecounts,' ') file from 
+			(select 'phs002599' as study_id,  file_type||'('||filecount||')' as filecounts from 
+				(select row_number() over() as row_num, file_type, count(*) as filecount from     
+					select  file_type, file_name from df_sequencing_file 
+								group by file_type order by filecount desc) where row_num &lt;=5)),
+publications as (select 'phs002599' as study_id, group_concat(pubmed_id,';') pubmeds from df_publication),
+personnel as (select 'phs002599' as study_id, group_concat(personnel_name,';') name from df_study_personnel),
+funding as (select 'phs002599' as study, group_concat(grant_id,';') grant from (select distinct grant_id from df_study_funding))		
 select s.study_name as "Study Name",s.study_id as "Study ID" ,s.study_status as "Study Status",
 d.diagcount as "Diagnosis (Top 5)",da.anatcount as "Diagnosis Anatomic Site (Top 5)", 
-p.p_count as "Number of Participants",smp.s_count as "Number of Samples",(sq.sq_count+mf_count) as "Number of Files" ,
+p.p_count as "Number of Participants",smp.s_count as "Number of Samples",tf.file_count as "Number of Files" ,
 f.file as "File Type (Top 5)", pub.pubmeds as "PubMed ID",pr.name as "Principal Investigator(s)", f.grant as "Grant ID"
 from study s
 left join diagnosis d on s.study_id = d.study_id
 left join diagnosisas da on s.study_id = da.study_id
 left join participants p on s.study_id = p.study_id
 left join sample smp on s.study_id = smp.study_id
-left join sequencing sq on s.study_id = sq.study_id
-left join methylation mf on s.study_id = mf.study_id
+left join total_files tf on s.study_id = tf.study_id
 left join files f on s.study_id = f.study_id
 left join publications pub on s.study_id = pub.study_id
 left join personnel pr on s.study_id = pr.study_id
-left join funding f on s.study_id = f.study</t>
-  </si>
-  <si>
-    <t>TC01_CCDI_phs002599_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>TC01_CCDI_phs002599_TSVData.xlsx</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    (COUNT(DISTINCT seq.id) + COUNT(DISTINCT maf.id)) AS "Files"
+left join funding f on s.study_id = f.study
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with file_data as (
+select file_name, data_category, file_description, file_type, file_size,file_access,  "sample.id" from df_sequencing_file)
+SELECT fd.file_name AS "File Name",
+    fd.data_category AS "Data Category",
+    COALESCE(fd.file_description, '') AS "File Description",
+    fd.file_type AS "File Type" ,
+        CASE     
+    WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+            ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+        END
+    WHEN fd.file_size &gt;= 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+            ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
+        END
+    WHEN fd.file_size &gt;= 1024 THEN 
+        CASE 
+            WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) 
+            THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+            ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
+        END
+    ELSE 
+        CASE 
+            WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT) 
+            THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' Bytes'
+            ELSE ROUND(fd.file_size, 2) || ' Bytes'
+        END
+END AS "File Size",
+fd.file_access AS "File Access",
+    std.dbgap_accession AS "Study ID",
+    prt.participant_id AS "Participant ID",
+    smp.sample_id AS "Sample ID"    
 FROM 
     df_study std
 LEFT JOIN 
     df_participant prt ON std.id = prt."study.id"
 LEFT JOIN 
     df_sample smp ON prt.id = smp."participant.id"
+JOIN 
+    file_data fd ON smp.id = fd."sample.id"
+WHERE 
+    std.dbgap_accession = 'phs002599'
+ORDER BY  fd.file_name
+limit 100;
+</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    smp.sample_id AS "Sample ID",
+    prt.participant_id AS "Participant ID",
+    std.dbgap_accession AS "Study ID",
+    smp.anatomic_site AS "Sample Anatomic Site",
+    COALESCE(
+        CASE 
+            WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' 
+            ELSE smp.participant_age_at_collection 
+        END, 
+        0
+    ) AS "Age at Sample Collection (days)",
+    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
+    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
+   null  AS "Sample Diagnosis"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
 LEFT JOIN 
     df_diagnosis dgn ON prt.id = dgn."participant.id"
---LEFT JOIN 
- --   df_publication pub ON std.id = pub."study.id"
-LEFT JOIN 
-    df_sequencing_file seq ON smp.id = seq."sample.id"
-LEFT JOIN 
-    df_study_admin adm ON std.id = adm."study.id"
-LEFT JOIN 
-    df_study_personnel per ON std.id = per."study.id"
-LEFT JOIN 
-    df_study_funding fund ON std.id = fund."study.id"
-LEFT JOIN 
-    df_methylation_array_file maf ON smp.id = maf."sample.id"
-LEFT JOIN 
-    df_treatment trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
 WHERE 
-    std.dbgap_accession = 'phs002599' AND prt.sex_at_birth = 'Male' ;</t>
+    std.dbgap_accession = 'phs002599' 
+    AND smp.sample_id IS NOT NULL
+ORDER BY 
+    smp.sample_id ASC;</t>
+  </si>
+  <si>
+    <t>WITH diagnosis_summary AS (
+    SELECT 
+        dgn."participant.id" AS participant_id, 
+        GROUP_CONCAT(DISTINCT dgn.age_at_diagnosis) AS age_at_diagnosis, 
+        GROUP_CONCAT(DISTINCT dgn.diagnosis) AS diagnosis, 
+        GROUP_CONCAT(DISTINCT dgn.anatomic_site) AS anatomic_site
+    FROM df_diagnosis dgn
+    WHERE dgn."participant.id" IS NOT NULL
+    GROUP BY dgn."participant.id"
+),
+treatment_summary AS (
+    SELECT 
+        "participant.id" AS participant_id,
+        GROUP_CONCAT(DISTINCT treatment_type) AS treatment_type
+    FROM df_treatment
+    WHERE treatment_type IS NOT NULL
+    GROUP BY "participant.id"
+),
+survival_summary AS (
+    SELECT 
+        "participant.id" AS participant_id,
+        GROUP_CONCAT(DISTINCT last_known_survival_status) AS last_known_survival_status
+    FROM df_survival
+    GROUP BY "participant.id"
+)
+SELECT
+    prt.participant_id AS "Participant ID",
+    std.dbgap_accession AS "Study ID",
+    COALESCE(prt.sex_at_birth, '') AS "Sex",
+    COALESCE(prt.race, '') AS "Race",
+    COALESCE(dgn.diagnosis, '') AS "Diagnosis",
+    COALESCE(dgn.anatomic_site, '') AS "Diagnosis Anatomic Site",
+    COALESCE(
+        CASE 
+            WHEN dgn.age_at_diagnosis = '-999' THEN 'Not Reported'
+            ELSE dgn.age_at_diagnosis 
+        END, ''
+    ) AS "Age at Diagnosis (days)",
+    COALESCE(trt.treatment_type, '') AS "Treatment Type",
+    COALESCE(srv.last_known_survival_status, '') AS "Last Known Survival Status"
+FROM df_study std
+LEFT JOIN df_participant prt ON std.id = prt."study.id"
+LEFT JOIN diagnosis_summary dgn ON prt.id = dgn.participant_id
+LEFT JOIN treatment_summary trt ON prt.id = trt.participant_id
+LEFT JOIN survival_summary srv ON prt.id = srv.participant_id
+WHERE std.dbgap_accession = 'phs002599'
+ORDER BY prt.participant_id ASC
+LIMIT 100;</t>
   </si>
 </sst>
 </file>
@@ -643,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,16 +692,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -703,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -711,8 +726,8 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
     </row>

--- a/InputFiles/CCDI/TC01_CCDI_phs002599.xlsx
+++ b/InputFiles/CCDI/TC01_CCDI_phs002599.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\sowjanya0307\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D779D41-8FA7-4692-957E-6E7FDF632235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653F7ADB-21F1-48DE-9A96-24CB4AFF8ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,26 +65,62 @@
     <t>StudiesTab</t>
   </si>
   <si>
-    <t>with file_data as (
-select file_name, data_category,file_type, file_size,file_access,  file_description,"sample.id" from df_sequencing_file
-union
-select file_name, data_category,file_type, file_size,file_access,  file_description,"sample.id" from df_methylation_array_file)
-SELECT DISTINCT
-    fd.file_name AS "File Name",
+    <t>SELECT
+    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
+    COUNT(DISTINCT prt.participant_id) AS "Participants",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT seq.id) AS "Files"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN 
+    df_sequencing_file seq ON smp.id = seq."sample.id"
+WHERE 
+    std.dbgap_accession = 'phs002599';</t>
+  </si>
+  <si>
+    <t>TC01_CCDI_phs002599_TSVData.xlsx</t>
+  </si>
+  <si>
+    <t>TC01_CCDI_phs002599_WebData.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with file_data as (
+select file_name, data_category, file_description, file_type, file_size,file_access,  "sample.id" from df_sequencing_file)
+SELECT fd.file_name AS "File Name",
     fd.data_category AS "Data Category",
     COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type",
-    CASE     
-        WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
-            ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
-        WHEN fd.file_size &gt;= 1024 * 1024 THEN 
-            ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB' 
-        WHEN fd.file_size &gt;= 1024 THEN 
-            ROUND(fd.file_size / 1024.0, 2) || ' KB' 
-        ELSE 
-            ROUND(fd.file_size, 2) || ' Bytes' 
-    END AS "File Size",
-    fd.file_access AS "File Access",
+    fd.file_type AS "File Type" ,
+        CASE     
+    WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+            ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+        END
+    WHEN fd.file_size &gt;= 1024 * 1024 THEN 
+        CASE 
+            WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) 
+            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+            ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
+        END
+    WHEN fd.file_size &gt;= 1024 THEN 
+        CASE 
+            WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) 
+            THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+            ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
+        END
+    ELSE 
+        CASE 
+            WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT) 
+            THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' Bytes'
+            ELSE ROUND(fd.file_size, 2) || ' Bytes'
+        END
+END AS "File Size",
+fd.file_access AS "File Access",
     std.dbgap_accession AS "Study ID",
     prt.participant_id AS "Participant ID",
     smp.sample_id AS "Sample ID"    
@@ -97,127 +133,77 @@
 JOIN 
     file_data fd ON smp.id = fd."sample.id"
 WHERE 
-    std.dbgap_accession = 'phs002599' ---AND prt.sex_at_birth = 'Male'
-Limit 100</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-   smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID", std.dbgap_accession AS "Study ID" , std.id, smp.anatomic_site AS "Sample Anatomic Site", dgn. "participant.id",
-    COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE smp.participant_age_at_collection END, 0) AS "Age at Sample Collection (days)",
-    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
-    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
---COALESCE(CASE WHEN dgn."participant.id" is null THEN dgn.diagnosis ELSE dgn.diagnosis_comment END,dgn.diagnosis_comment) AS "Sample Diagnosis1",
- dgn.diagnosis as "Sample Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON smp."id" = dgn."sample.id"
-WHERE 
-   std.dbgap_accession = 'phs002599' ---AND prt.sex_at_birth = 'Male' 
-AND smp.sample_id IS NOT NULL
-ORDER BY 
-   smp.sample_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>with diagnosis1 as (
-select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
-diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
-diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ),
-treatment1 as (select trt."participant.id",trt.treatment_type from  df_treatment trt  where trt.treatment_type is not null)
-SELECT DISTINCT
+    std.dbgap_accession = 'phs002599'
+ORDER BY  fd.file_name
+limit 100;
+</t>
+  </si>
+  <si>
+    <t>WITH diagnosis_summary AS (
+    SELECT 
+        dgn."participant.id" AS participant_id, 
+        GROUP_CONCAT(DISTINCT dgn.age_at_diagnosis) AS age_at_diagnosis, 
+        GROUP_CONCAT(DISTINCT dgn.diagnosis) AS diagnosis, 
+        GROUP_CONCAT(DISTINCT dgn.anatomic_site) AS anatomic_site
+    FROM df_diagnosis dgn
+    WHERE dgn."participant.id" IS NOT NULL
+    GROUP BY dgn."participant.id"
+),
+treatment_summary AS (
+    SELECT 
+        "participant.id" AS participant_id,
+        GROUP_CONCAT(DISTINCT treatment_type) AS treatment_type
+    FROM df_treatment
+    WHERE treatment_type IS NOT NULL
+    GROUP BY "participant.id"
+),
+survival_summary AS (
+    SELECT 
+        "participant.id" AS participant_id,
+        GROUP_CONCAT(DISTINCT last_known_survival_status) AS last_known_survival_status
+    FROM df_survival
+    GROUP BY "participant.id"
+)
+SELECT
     prt.participant_id AS "Participant ID",
     std.dbgap_accession AS "Study ID",
     COALESCE(prt.sex_at_birth, '') AS "Sex",
     COALESCE(prt.race, '') AS "Race",
-	dgn2.diag AS "Diagnosis",
-	dgn3.ant_site AS "Diagnosis Anatomic Site",
-	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
-	trt1.treatment_type AS "Treatment Type",
-	srv.last_known_survival_status AS "Last Known Survival Status"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
-LEFT JOIN 
-    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
-LEFT JOIN 
-    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    treatment1 trt1 ON prt.id = trt1."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs002599' AND prt.sex_at_birth = 'Male' 
-ORDER BY 
-    prt.participant_id ASC 
+    COALESCE(dgn.diagnosis, '') AS "Diagnosis",
+    COALESCE(dgn.anatomic_site, '') AS "Diagnosis Anatomic Site",
+    COALESCE(
+        CASE 
+            WHEN dgn.age_at_diagnosis = '-999' THEN 'Not Reported'
+            ELSE dgn.age_at_diagnosis 
+        END, ''
+    ) AS "Age at Diagnosis (days)",
+    COALESCE(trt.treatment_type, '') AS "Treatment Type",
+    COALESCE(srv.last_known_survival_status, '') AS "Last Known Survival Status"
+FROM df_study std
+LEFT JOIN df_participant prt ON std.id = prt."study.id"
+LEFT JOIN diagnosis_summary dgn ON prt.id = dgn.participant_id
+LEFT JOIN treatment_summary trt ON prt.id = trt.participant_id
+LEFT JOIN survival_summary srv ON prt.id = srv.participant_id
+WHERE std.dbgap_accession = 'phs002599'
+ORDER BY prt.participant_id ASC
 LIMIT 100;</t>
   </si>
   <si>
-    <t>WITH Study AS (SELECT
-    distinct std.study_name AS "Study_Name",
-    std.dbgap_accession AS "Study_ID",
-	std.study_status AS "Study_Status"
-FROM df_study std where std.dbgap_accession is not null),
-diagnosis as (select study_id, group_concat(diagcounts,' ') diagcount from (select 'phs002599' as study_id,  diagnosis||'('||d_count||')' as diagcounts from (select row_number() over() as row_num, dgn.diagnosis diagnosis, count(*) d_count from df_diagnosis dgn group by dgn.diagnosis order by d_count desc) where row_num &lt;=5)),
-diagnosisas as (select study_id, group_concat(anatcounts,' ') anatcount from (select 'phs002599' as study_id,  anat||'('||as_count||')' as anatcounts from (select row_number() over() as row_num, dgn1.anatomic_site anat, count(*) as_count from df_diagnosis dgn1 group by dgn1.anatomic_site order by as_count desc) where row_num &lt;=5)),
-participants as (select 'phs002599' as study_id, count(*) as p_count from
-	    df_participant prt),	
-sample as (select 'phs002599' as study_id, count(*) as s_count from
-	    df_sample),
-sequencing as (select 'phs002599' as study_id, count(*) as sq_count from
-	    df_sequencing_file),
-sequencing1 as (select 'phs002599' as study_id, file_type, count(*) as sq1_count from
-	    df_sequencing_file group by file_type order by sq1_count),
-methylation as (select 'phs002599' as study_id, count(*) as mf_count from
-	    df_methylation_array_file),
-methylation1 as (select 'phs002599' as study_id, file_type, count(*) as mf1_count from
-	    df_methylation_array_file),
-files as (select study_id, group_concat(filecounts,' ') file from (select 'phs002599' as study_id,  file_type||'('||filecount||')' as filecounts from (select row_number() over() as row_num, file_type, count(*) as filecount from     (select  file_type, file_name from df_sequencing_file 
-		  union all
-		  select  file_type, file_name from df_methylation_array_file) 
-		  group by file_type order by filecount desc) where row_num &lt;=5)),
-publications as (select 'phs002599' as study_id, group_concat(pubmed_id,';') pubmeds from
-	    df_publication),
-personnel as (select 'phs002599' as study_id, group_concat(personnel_name,';') name from
-	    df_study_personnel),
-funding as (select 'phs002599' as study, group_concat(grant_id,';') grant from (select distinct grant_id from 
-	    df_study_funding))		
-select s.study_name as "Study Name",s.study_id as "Study ID" ,s.study_status as "Study Status",
-d.diagcount as "Diagnosis (Top 5)",da.anatcount as "Diagnosis Anatomic Site (Top 5)", 
-p.p_count as "Number of Participants",smp.s_count as "Number of Samples",(sq.sq_count+mf_count) as "Number of Files" ,
-f.file as "File Type (Top 5)", pub.pubmeds as "PubMed ID",pr.name as "Principal Investigator(s)", f.grant as "Grant ID"
-from study s
-left join diagnosis d on s.study_id = d.study_id
-left join diagnosisas da on s.study_id = da.study_id
-left join participants p on s.study_id = p.study_id
-left join sample smp on s.study_id = smp.study_id
-left join sequencing sq on s.study_id = sq.study_id
-left join methylation mf on s.study_id = mf.study_id
-left join files f on s.study_id = f.study_id
-left join publications pub on s.study_id = pub.study_id
-left join personnel pr on s.study_id = pr.study_id
-left join funding f on s.study_id = f.study</t>
-  </si>
-  <si>
-    <t>TC01_CCDI_phs002599_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>TC01_CCDI_phs002599_TSVData.xlsx</t>
-  </si>
-  <si>
-    <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    (COUNT(DISTINCT seq.id) + COUNT(DISTINCT maf.id)) AS "Files"
+    <t>SELECT DISTINCT
+    smp.sample_id AS "Sample ID",
+    prt.participant_id AS "Participant ID",
+    std.dbgap_accession AS "Study ID",
+    smp.anatomic_site AS "Sample Anatomic Site",
+    COALESCE(
+        CASE 
+            WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' 
+            ELSE smp.participant_age_at_collection 
+        END, 
+        0
+    ) AS "Age at Sample Collection (days)",
+    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
+    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
+   null  AS "Sample Diagnosis"
 FROM 
     df_study std
 LEFT JOIN 
@@ -226,22 +212,134 @@
     df_sample smp ON prt.id = smp."participant.id"
 LEFT JOIN 
     df_diagnosis dgn ON prt.id = dgn."participant.id"
---LEFT JOIN 
- --   df_publication pub ON std.id = pub."study.id"
 LEFT JOIN 
-    df_sequencing_file seq ON smp.id = seq."sample.id"
-LEFT JOIN 
-    df_study_admin adm ON std.id = adm."study.id"
-LEFT JOIN 
-    df_study_personnel per ON std.id = per."study.id"
-LEFT JOIN 
-    df_study_funding fund ON std.id = fund."study.id"
-LEFT JOIN 
-    df_methylation_array_file maf ON smp.id = maf."sample.id"
-LEFT JOIN 
-    df_treatment trt ON prt.id = trt."participant.id"
+    df_survival srv ON prt.id = srv."participant.id"
 WHERE 
-    std.dbgap_accession = 'phs002599' AND prt.sex_at_birth = 'Male' ;</t>
+    std.dbgap_accession = 'phs002599' 
+    AND smp.sample_id IS NOT NULL
+ORDER BY 
+    smp.sample_id ASC limit 100;</t>
+  </si>
+  <si>
+    <t>WITH Study AS (
+    SELECT DISTINCT 
+        std.study_name AS "Study_Name",
+        std.dbgap_accession AS "Study_ID",
+        std.study_status AS "Study_Status"
+    FROM df_study std 
+    WHERE std.dbgap_accession IS NOT NULL
+),
+diagnosis AS (
+    SELECT study_id, GROUP_CONCAT(diagcounts, ' ') AS diagcount 
+    FROM (
+        SELECT 
+            'phs002599' AS study_id,  
+            diagnosis || ' (' || d_count || ')' AS diagcounts 
+        FROM (
+            SELECT 
+                ROW_NUMBER() OVER() AS row_num, 
+                dgn.diagnosis AS diagnosis,
+                COUNT(*) AS d_count 
+            FROM df_diagnosis dgn 
+            GROUP BY dgn.diagnosis 
+            ORDER BY d_count DESC
+        ) 
+        WHERE row_num &lt;= 5
+    )
+),
+diagnosisas AS (
+    SELECT study_id, GROUP_CONCAT(anatcounts, ' ') AS anatcount 
+    FROM (
+        SELECT 
+            'phs002599' AS study_id,  
+            anat || ' (' || as_count || ')' AS anatcounts 
+        FROM (
+            SELECT 
+                ROW_NUMBER() OVER() AS row_num, 
+                dgn1.anatomic_site AS anat, 
+                COUNT(*) AS as_count 
+            FROM df_diagnosis dgn1 
+            GROUP BY dgn1.anatomic_site 
+            ORDER BY as_count DESC
+        ) 
+        WHERE row_num &lt;= 5
+    )
+),
+participants AS (
+    SELECT 'phs002599' AS study_id, COUNT(*) AS p_count 
+    FROM df_participant prt
+),	
+sample AS (
+    SELECT 'phs002599' AS study_id, COUNT(*) AS s_count 
+    FROM df_sample
+),
+total_files AS (
+    SELECT 'phs002599' AS study_id, COUNT(*) AS file_count 
+    FROM df_sequencing_file
+),
+files AS (
+    SELECT 
+        study_id, 
+        GROUP_CONCAT(filecounts, CHAR(10)) AS file 
+    FROM (
+        SELECT 
+            'phs002599' AS study_id,  
+            file_type || ' (' || filecount || ')' AS filecounts 
+        FROM (
+            SELECT 
+                ROW_NUMBER() OVER() AS row_num, 
+                file_type, 
+                COUNT(*) AS filecount 
+            FROM df_sequencing_file
+            GROUP BY file_type 
+            ORDER BY filecount DESC
+        ) 
+        WHERE row_num &lt;= 5
+    )
+),
+publications AS (
+    SELECT 'phs002599' AS study_id, GROUP_CONCAT(pubmed_id, ';') AS pubmeds 
+    FROM df_publication
+),
+personnel AS (
+    SELECT 
+        'phs002599' AS study_id, 
+        GROUP_CONCAT(personnel_name, ';') AS name 
+    FROM 
+        df_study_personnel
+    WHERE 
+        personnel_type = 'PI'
+),
+funding AS (
+    SELECT 'phs002599' AS study_id, GROUP_CONCAT(grant_id, ';') AS grant 
+    FROM (
+        SELECT DISTINCT grant_id 
+        FROM df_study_funding
+    )
+)
+SELECT 
+    s.study_name AS "Study Name",
+    s.study_id AS "Study ID",
+    s.study_status AS "Study Status",
+    d.diagcount AS "Diagnosis (Top 5)",
+    da.anatcount AS "Diagnosis Anatomic Site (Top 5)", 
+    p.p_count AS "Number of Participants",
+    smp.s_count AS "Number of Samples",
+    tf.file_count AS "Number of Files",
+    fl.file AS "File Type (Top 5)",
+    pub.pubmeds AS "PubMed ID",
+    pr.name AS "Principal Investigator(s)",
+    fnd.grant AS "Grant ID"
+FROM Study s
+LEFT JOIN diagnosis d ON s.study_id = d.study_id
+LEFT JOIN diagnosisas da ON s.study_id = da.study_id
+LEFT JOIN participants p ON s.study_id = p.study_id
+LEFT JOIN sample smp ON s.study_id = smp.study_id
+LEFT JOIN total_files tf ON s.study_id = tf.study_id
+LEFT JOIN files fl ON s.study_id = fl.study_id
+LEFT JOIN publications pub ON s.study_id = pub.study_id
+LEFT JOIN personnel pr ON s.study_id = pr.study_id
+LEFT JOIN funding fnd ON s.study_id = fnd.study_id;</t>
   </si>
 </sst>
 </file>
@@ -643,19 +741,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70.140625" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.88671875" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" customWidth="1"/>
+    <col min="5" max="5" width="63.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -672,55 +770,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
